--- a/GPU/gpu数据.xlsx
+++ b/GPU/gpu数据.xlsx
@@ -1046,8 +1046,8 @@
   <sheetPr/>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
